--- a/exo_control/neural_network_parameters/excel/PV_typical_cnn.xlsx
+++ b/exo_control/neural_network_parameters/excel/PV_typical_cnn.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,204 +483,1322 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.150315284729004</v>
+        <v>9.406725883483887</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.036267280578613</v>
+        <v>-5.519193649291992</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.966701030731201</v>
+        <v>-5.694462299346924</v>
       </c>
       <c r="F2" t="n">
-        <v>-17.16558074951172</v>
+        <v>-13.27467250823975</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.582318782806396</v>
+        <v>2.782201766967773</v>
       </c>
       <c r="H2" t="n">
-        <v>4.125278949737549</v>
+        <v>2.335049390792847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1292289182543755</v>
+        <v>-0.004469559201970697</v>
       </c>
       <c r="B3" t="n">
-        <v>0.53</v>
+        <v>-0.07400444746017457</v>
       </c>
       <c r="C3" t="n">
-        <v>7.90838623046875</v>
+        <v>9.628528594970703</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.269144535064697</v>
+        <v>-2.557069778442383</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.839660167694092</v>
+        <v>-6.387648582458496</v>
       </c>
       <c r="F3" t="n">
-        <v>-17.5546817779541</v>
+        <v>-12.71200847625732</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.304749488830566</v>
+        <v>6.812507152557373</v>
       </c>
       <c r="H3" t="n">
-        <v>2.013117790222168</v>
+        <v>-1.806526660919189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2292617264389992</v>
+        <v>-0.01847978435456753</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1180906979739666</v>
+        <v>-0.3462484562397004</v>
       </c>
       <c r="C4" t="n">
-        <v>7.721115112304688</v>
+        <v>10.3237886428833</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.16892671585083</v>
+        <v>1.123466491699219</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.764943599700928</v>
+        <v>-6.315536022186279</v>
       </c>
       <c r="F4" t="n">
-        <v>-17.07888412475586</v>
+        <v>-10.6421070098877</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.294754981994629</v>
+        <v>10.77616882324219</v>
       </c>
       <c r="H4" t="n">
-        <v>1.232970118522644</v>
+        <v>-5.229604721069336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3707380139827728</v>
+        <v>-0.0175439090281725</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1746601247787476</v>
+        <v>-0.5337835264205932</v>
       </c>
       <c r="C5" t="n">
-        <v>7.456257820129395</v>
+        <v>10.27734565734863</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.567984104156494</v>
+        <v>2.654649972915649</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.160014629364014</v>
+        <v>-5.596972942352295</v>
       </c>
       <c r="F5" t="n">
-        <v>-17.037353515625</v>
+        <v>-9.216257095336914</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.846619606018066</v>
+        <v>14.81512355804443</v>
       </c>
       <c r="H5" t="n">
-        <v>0.723569393157959</v>
+        <v>-8.045101165771484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2917995470762253</v>
+        <v>-0.003052841755561531</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5882295608520508</v>
+        <v>-0.796827255487442</v>
       </c>
       <c r="C6" t="n">
-        <v>7.604038238525391</v>
+        <v>9.558223724365234</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.735808372497559</v>
+        <v>3.46151328086853</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.948651552200317</v>
+        <v>-4.580113887786865</v>
       </c>
       <c r="F6" t="n">
-        <v>-16.73373031616211</v>
+        <v>-7.216306686401367</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.964827537536621</v>
+        <v>18.28666496276855</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6523020267486572</v>
+        <v>-9.765130043029785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4851276761293412</v>
+        <v>0.02555681779980659</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5141208648681641</v>
+        <v>-1.05452764749527</v>
       </c>
       <c r="C7" t="n">
-        <v>7.242109298706055</v>
+        <v>8.138463973999023</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.832381725311279</v>
+        <v>3.802540063858032</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.276658535003662</v>
+        <v>-2.787733793258667</v>
       </c>
       <c r="F7" t="n">
-        <v>-16.78813743591309</v>
+        <v>-5.256981372833252</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.028826951980591</v>
+        <v>21.06549072265625</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8225274682044983</v>
+        <v>-9.681509971618652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4264950209856034</v>
+        <v>0.04309803768992424</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6547676026821136</v>
+        <v>-1.358819105625153</v>
       </c>
       <c r="C8" t="n">
-        <v>7.351875305175781</v>
+        <v>7.267977714538574</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.806264400482178</v>
+        <v>3.467410802841187</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.030911684036255</v>
+        <v>-0.680406391620636</v>
       </c>
       <c r="F8" t="n">
-        <v>-16.68488121032715</v>
+        <v>-2.943420171737671</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.3969407081604</v>
+        <v>22.53183746337891</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9794079661369324</v>
+        <v>-8.808811187744141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>0.07154821798205376</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.656339464187622</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.856132030487061</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.546720266342163</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4060348868370056</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6813399791717529</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.28263282775879</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-6.432369709014893</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1068419426679611</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.804728076457977</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.104674339294434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4809982776641846</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.291014552116394</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4468758106231689</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.19976425170898</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3.671064853668213</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1407522657513618</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.100879051685333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.421867847442627</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3684781193733215</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.404714822769165</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.698543787002563</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.77215385437012</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.9963785409927368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1824536812305451</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.258382649421692</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3524273335933685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.74825119972229</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.828369855880737</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.896061420440674</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17.73429870605469</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.334359645843506</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.2172136455774307</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.445446705818176</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.37254273891449</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-5.265735149383545</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.891693115234375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.318330764770508</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.94201374053955</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.037442445755005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.258294150531292</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.541200680732727</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.411169767379761</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-7.038727760314941</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.325116872787476</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.046358585357666</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.385236740112305</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.456318140029907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2900218570232391</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.651919689178467</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.985663414001465</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-8.292832374572754</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.089269638061523</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.888166904449463</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.104812145233154</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.106197834014893</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3264079087972641</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.68845974445343</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.791327953338623</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10.79940891265869</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.574103832244873</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.165984153747559</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8634784817695618</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.234527587890625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3494236767292023</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.71414026260376</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.933489322662354</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-12.01266098022461</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.510768413543701</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.361238479614258</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-4.299086570739746</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.924769163131714</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.385046660900116</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-2.742626266479492</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.701286315917969</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-12.94745445251465</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.514664649963379</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.577818870544434</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-8.153447151184082</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.205530881881714</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4126368224620819</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.717850246429443</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-11.07045555114746</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-13.5744800567627</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.979497909545898</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.389443397521973</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-11.09954071044922</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.970250844955444</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4420254921913147</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.713031311035156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.5288724899292</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-13.83400917053223</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.215782165527344</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7.352805137634277</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-14.03360843658447</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.733718395233154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.4587269586324692</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.706369009017945</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-13.35768508911133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-13.72663879394531</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.3989429473877</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.302151679992676</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-14.86472034454346</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.852314710617065</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.4900139307975769</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.770390996932984</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.91030788421631</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-13.31176376342773</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.53446292877197</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.78891658782959</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-15.33841705322266</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.58500599861145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5059345442056656</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.767344160079956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.70037078857422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-12.27177810668945</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.29898834228516</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.765750885009766</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-14.99719905853271</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.507645845413208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.5236700612306595</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.820099978446961</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.58049774169922</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-11.06296539306641</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12.20118427276611</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.166858673095703</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-13.20925998687744</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3339290022850037</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5263049268722535</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.85300359249115</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-16.71125411987305</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-9.204770088195801</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.77385520935059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.41702938079834</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-10.97760009765625</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.766762733459473</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>0.53</v>
       </c>
-      <c r="B9" t="n">
-        <v>-0.6056961166858673</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.158103942871094</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-8.034305572509766</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-3.17650318145752</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-16.72090721130371</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-2.495736837387085</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.028448462486267</v>
+      <c r="B26" t="n">
+        <v>-2.934063959121704</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-16.89462280273438</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-6.222312927246094</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.782820701599121</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.033340454101562</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-8.346857070922852</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.650710344314575</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.5120363682508469</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.018871712684632</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-16.003173828125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.524032592773438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.10616660118103</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.678142547607422</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-5.27826452255249</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-5.886271476745605</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4982661807537079</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.999639692306519</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-15.31982707977295</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.4873659610748291</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.248034000396729</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.531920433044434</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.742529153823853</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-7.483589649200439</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4722579115629196</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.997921929359436</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.02916240692139</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.364970445632935</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-7.059625625610352</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.518861770629883</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02004591375589371</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-8.136968612670898</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4379041373729706</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.007226963043213</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.32435035705566</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.042935371398926</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-11.43270778656006</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.589608192443848</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.127125144004822</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-7.893587589263916</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.3976358389854431</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.909742588996887</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.32602691650391</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.53415679931641</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-14.39717960357666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.848423957824707</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.261316299438477</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-6.880653381347656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.3284284663200379</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-2.742407155036926</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-6.891599178314209</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16.18835639953613</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-15.08706665039062</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.576154708862305</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.085338592529297</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-5.290951251983643</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.2861760973930359</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-2.620831389427185</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.794816970825195</v>
+      </c>
+      <c r="D33" t="n">
+        <v>19.48521423339844</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-14.24460029602051</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6.651800155639648</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.414005756378174</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-3.935326099395752</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2413058426976204</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-2.355687084197998</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.568121910095215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>22.43878746032715</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-11.42238426208496</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.635878562927246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8892778754234314</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2.677911996841431</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.741077365048316</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.45356378289157</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4307579696178436</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.83857154846191</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-7.802977085113525</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.880927324295044</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.6167959570884705</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1.431033253669739</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9335128072128334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-47.80674086253693</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.652960062026978</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.97308921813965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3.762685775756836</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.344058513641357</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.396624088287354</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.6963400840759277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9871892158315619</v>
+      </c>
+      <c r="B37" t="n">
+        <v>160.6166728175614</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.338969230651855</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24.67020225524902</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.5195028185844421</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.09618322551250458</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-4.688161849975586</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.2986794114112854</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.9984360101955684</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-455.5174731005682</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.195755958557129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23.42275047302246</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.947914838790894</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.749528884887695</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-6.740878582000732</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5031011700630188</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.9998582332608886</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1129.459171991522</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.022658824920654</v>
+      </c>
+      <c r="D39" t="n">
+        <v>19.75325012207031</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.821647644042969</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3.313839435577393</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-8.42848014831543</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.106584072113037</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999897337748782</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-2407.97028374344</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7.502079010009766</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15.21130084991455</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.876407384872437</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-4.672407627105713</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-9.45445442199707</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.749651312828064</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9999995439819412</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4167.744434091541</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.238439559936523</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.12548637390137</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.638095378875732</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-6.304675102233887</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-10.73566722869873</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.042105674743652</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.9999999629826415</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-5926.44784147835</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.271708488464355</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.839481830596924</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.923620223999023</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-7.542251586914062</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-11.37154006958008</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.169443607330322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9999999967456613</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6661.520072491424</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.094472885131836</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.8154937624931335</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.5777747631073</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-8.746660232543945</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-11.79760837554932</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6.047262668609619</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.9999999997267109</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-4776.382346575289</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.19802188873291</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-5.280325889587402</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6626136898994446</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-10.38433170318604</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-12.08828639984131</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.354083061218262</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.9999999999706044</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2020.157990145519</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.577692031860352</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-9.318390846252441</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1177147328853607</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-11.57154369354248</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-12.37570762634277</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.752682685852051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.9999999999961361</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-227.7968698811574</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.949539661407471</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-11.91298675537109</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.6731786727905273</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-12.81806087493896</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-12.26210117340088</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10.01194858551025</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.9999999999995567</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-70.8402460446915</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.388931751251221</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-12.26216506958008</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.933247447013855</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-14.53994750976562</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-11.25438404083252</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11.04688835144043</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.9999999999999476</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-31.57652988751073</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.29867696762085</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-12.23366928100586</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.32688570022583</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-15.10194873809814</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-11.18873977661133</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11.64600372314453</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.9999999999999943</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-24.56995076888916</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.585024833679199</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-11.53374195098877</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.381263613700867</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-16.4376220703125</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-10.07026767730713</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.23471450805664</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-19.05772736716762</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.480998992919922</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-10.65623474121094</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.060428857803345</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-16.43563270568848</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-8.228113174438477</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10.18142032623291</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-19.05772736716762</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.818656921386719</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-9.176410675048828</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2.71824312210083</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-17.3043212890625</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-6.633326530456543</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.545356273651123</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-17.7573005400688</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.334737777709961</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-7.839308261871338</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3.183116912841797</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-17.04306221008301</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-4.434921741485596</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.634125947952271</v>
       </c>
     </row>
   </sheetData>

--- a/exo_control/neural_network_parameters/excel/PV_typical_cnn.xlsx
+++ b/exo_control/neural_network_parameters/excel/PV_typical_cnn.xlsx
@@ -483,620 +483,620 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.406725883483887</v>
+        <v>9.278751373291016</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.519193649291992</v>
+        <v>-5.551028251647949</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.694462299346924</v>
+        <v>-5.310451030731201</v>
       </c>
       <c r="F2" t="n">
-        <v>-13.27467250823975</v>
+        <v>-12.75878047943115</v>
       </c>
       <c r="G2" t="n">
-        <v>2.782201766967773</v>
+        <v>2.086601972579956</v>
       </c>
       <c r="H2" t="n">
-        <v>2.335049390792847</v>
+        <v>2.366494655609131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.004469559201970697</v>
+        <v>-0.008558044638484717</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07400444746017457</v>
+        <v>-0.09221048071980477</v>
       </c>
       <c r="C3" t="n">
-        <v>9.628528594970703</v>
+        <v>9.700050354003906</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.557069778442383</v>
+        <v>-1.933442115783691</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.387648582458496</v>
+        <v>-6.03165340423584</v>
       </c>
       <c r="F3" t="n">
-        <v>-12.71200847625732</v>
+        <v>-11.95244121551514</v>
       </c>
       <c r="G3" t="n">
-        <v>6.812507152557373</v>
+        <v>6.043405055999756</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.806526660919189</v>
+        <v>-1.520199656486511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.01847978435456753</v>
+        <v>-0.01599339881911874</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3462484562397004</v>
+        <v>-0.205823846757412</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3237886428833</v>
+        <v>10.06608104705811</v>
       </c>
       <c r="D4" t="n">
-        <v>1.123466491699219</v>
+        <v>0.4759722948074341</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.315536022186279</v>
+        <v>-6.078878402709961</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.6421070098877</v>
+        <v>-10.95894336700439</v>
       </c>
       <c r="G4" t="n">
-        <v>10.77616882324219</v>
+        <v>10.05554676055908</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.229604721069336</v>
+        <v>-5.753170490264893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0175439090281725</v>
+        <v>-0.01532791612669826</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5337835264205932</v>
+        <v>-0.4194053947925568</v>
       </c>
       <c r="C5" t="n">
-        <v>10.27734565734863</v>
+        <v>10.03332042694092</v>
       </c>
       <c r="D5" t="n">
-        <v>2.654649972915649</v>
+        <v>2.690879821777344</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.596972942352295</v>
+        <v>-5.934514045715332</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.216257095336914</v>
+        <v>-9.091268539428711</v>
       </c>
       <c r="G5" t="n">
-        <v>14.81512355804443</v>
+        <v>13.99688339233398</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.045101165771484</v>
+        <v>-8.444643020629883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.003052841755561531</v>
+        <v>-0.0053608179371804</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.796827255487442</v>
+        <v>-0.6944881224632263</v>
       </c>
       <c r="C6" t="n">
-        <v>9.558223724365234</v>
+        <v>9.542655944824219</v>
       </c>
       <c r="D6" t="n">
-        <v>3.46151328086853</v>
+        <v>4.310849666595459</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.580113887786865</v>
+        <v>-4.192105770111084</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.216306686401367</v>
+        <v>-6.685793399810791</v>
       </c>
       <c r="G6" t="n">
-        <v>18.28666496276855</v>
+        <v>17.40176200866699</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.765130043029785</v>
+        <v>-10.11828231811523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02555681779980659</v>
+        <v>0.01702414721250534</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.05452764749527</v>
+        <v>-0.7854232251644135</v>
       </c>
       <c r="C7" t="n">
-        <v>8.138463973999023</v>
+        <v>8.440679550170898</v>
       </c>
       <c r="D7" t="n">
-        <v>3.802540063858032</v>
+        <v>3.896680593490601</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.787733793258667</v>
+        <v>-2.702399015426636</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.256981372833252</v>
+        <v>-5.890606880187988</v>
       </c>
       <c r="G7" t="n">
-        <v>21.06549072265625</v>
+        <v>20.59026718139648</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.681509971618652</v>
+        <v>-9.92857551574707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04309803768992424</v>
+        <v>0.03622786648571492</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.358819105625153</v>
+        <v>-1.10664116859436</v>
       </c>
       <c r="C8" t="n">
-        <v>7.267977714538574</v>
+        <v>7.49531078338623</v>
       </c>
       <c r="D8" t="n">
-        <v>3.467410802841187</v>
+        <v>4.406075477600098</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.680406391620636</v>
+        <v>-1.244731903076172</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.943420171737671</v>
+        <v>-3.081700801849365</v>
       </c>
       <c r="G8" t="n">
-        <v>22.53183746337891</v>
+        <v>22.08121681213379</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.808811187744141</v>
+        <v>-9.421366691589355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07154821798205376</v>
+        <v>0.06796002328395843</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.656339464187622</v>
+        <v>-1.285320863723755</v>
       </c>
       <c r="C9" t="n">
-        <v>5.856132030487061</v>
+        <v>5.933187007904053</v>
       </c>
       <c r="D9" t="n">
-        <v>2.546720266342163</v>
+        <v>3.060422658920288</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4060348868370056</v>
+        <v>0.1422070860862732</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6813399791717529</v>
+        <v>-1.51922595500946</v>
       </c>
       <c r="G9" t="n">
-        <v>23.28263282775879</v>
+        <v>22.48375129699707</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.432369709014893</v>
+        <v>-7.281062126159668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1068419426679611</v>
+        <v>0.1057144238054752</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.804728076457977</v>
+        <v>-1.48847128868103</v>
       </c>
       <c r="C10" t="n">
-        <v>4.104674339294434</v>
+        <v>4.074597835540771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4809982776641846</v>
+        <v>1.475626945495605</v>
       </c>
       <c r="E10" t="n">
-        <v>1.291014552116394</v>
+        <v>1.319988965988159</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4468758106231689</v>
+        <v>0.2572323083877563</v>
       </c>
       <c r="G10" t="n">
-        <v>22.19976425170898</v>
+        <v>22.10555267333984</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.671064853668213</v>
+        <v>-4.336208820343018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1407522657513618</v>
+        <v>0.1435604366660118</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.100879051685333</v>
+        <v>-1.710189323425293</v>
       </c>
       <c r="C11" t="n">
-        <v>2.421867847442627</v>
+        <v>2.211498022079468</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3684781193733215</v>
+        <v>-0.7361200451850891</v>
       </c>
       <c r="E11" t="n">
-        <v>2.404714822769165</v>
+        <v>2.202063798904419</v>
       </c>
       <c r="F11" t="n">
-        <v>2.698543787002563</v>
+        <v>2.196057558059692</v>
       </c>
       <c r="G11" t="n">
-        <v>20.77215385437012</v>
+        <v>20.19515419006348</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9963785409927368</v>
+        <v>-1.523595094680786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1824536812305451</v>
+        <v>0.1708574387431145</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.258382649421692</v>
+        <v>-1.885061483383179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3524273335933685</v>
+        <v>0.8677104115486145</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.74825119972229</v>
+        <v>-2.115996122360229</v>
       </c>
       <c r="E12" t="n">
-        <v>2.828369855880737</v>
+        <v>2.750537633895874</v>
       </c>
       <c r="F12" t="n">
-        <v>3.896061420440674</v>
+        <v>3.725235462188721</v>
       </c>
       <c r="G12" t="n">
-        <v>17.73429870605469</v>
+        <v>17.93680000305176</v>
       </c>
       <c r="H12" t="n">
-        <v>1.334359645843506</v>
+        <v>0.5003035664558411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2172136455774307</v>
+        <v>0.2132812491059303</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.445446705818176</v>
+        <v>-1.987717468738556</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.37254273891449</v>
+        <v>-1.220746636390686</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.265735149383545</v>
+        <v>-4.980582237243652</v>
       </c>
       <c r="E13" t="n">
-        <v>2.891693115234375</v>
+        <v>2.83034873008728</v>
       </c>
       <c r="F13" t="n">
-        <v>5.318330764770508</v>
+        <v>4.622916698455811</v>
       </c>
       <c r="G13" t="n">
-        <v>14.94201374053955</v>
+        <v>14.25097942352295</v>
       </c>
       <c r="H13" t="n">
-        <v>3.037442445755005</v>
+        <v>1.935047149658203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.258294150531292</v>
+        <v>0.249390110373497</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.541200680732727</v>
+        <v>-2.108929564952851</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.411169767379761</v>
+        <v>-2.998329162597656</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.038727760314941</v>
+        <v>-6.816014766693115</v>
       </c>
       <c r="E14" t="n">
-        <v>3.325116872787476</v>
+        <v>3.544761180877686</v>
       </c>
       <c r="F14" t="n">
-        <v>6.046358585357666</v>
+        <v>5.682862281799316</v>
       </c>
       <c r="G14" t="n">
-        <v>9.385236740112305</v>
+        <v>9.879371643066406</v>
       </c>
       <c r="H14" t="n">
-        <v>3.456318140029907</v>
+        <v>3.073941469192505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2900218570232391</v>
+        <v>0.2851827985048294</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.651919689178467</v>
+        <v>-2.266920161247254</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.985663414001465</v>
+        <v>-4.760344982147217</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.292832374572754</v>
+        <v>-8.216750144958496</v>
       </c>
       <c r="E15" t="n">
-        <v>4.089269638061523</v>
+        <v>3.520349025726318</v>
       </c>
       <c r="F15" t="n">
-        <v>6.888166904449463</v>
+        <v>7.064420223236084</v>
       </c>
       <c r="G15" t="n">
-        <v>5.104812145233154</v>
+        <v>5.207700252532959</v>
       </c>
       <c r="H15" t="n">
-        <v>4.106197834014893</v>
+        <v>3.848934412002563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3264079087972641</v>
+        <v>0.3280639755725861</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.68845974445343</v>
+        <v>-2.300679244995117</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.791327953338623</v>
+        <v>-6.87131929397583</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.79940891265869</v>
+        <v>-10.51186466217041</v>
       </c>
       <c r="E16" t="n">
-        <v>4.574103832244873</v>
+        <v>4.719565391540527</v>
       </c>
       <c r="F16" t="n">
-        <v>7.165984153747559</v>
+        <v>7.359627723693848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8634784817695618</v>
+        <v>1.217170596122742</v>
       </c>
       <c r="H16" t="n">
-        <v>4.234527587890625</v>
+        <v>4.156107425689697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3494236767292023</v>
+        <v>0.361327531337738</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.71414026260376</v>
+        <v>-2.288229570388794</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.933489322662354</v>
+        <v>-8.508831024169922</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.01266098022461</v>
+        <v>-12.04165744781494</v>
       </c>
       <c r="E17" t="n">
-        <v>5.510768413543701</v>
+        <v>5.450103759765625</v>
       </c>
       <c r="F17" t="n">
-        <v>7.361238479614258</v>
+        <v>7.250761032104492</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.299086570739746</v>
+        <v>-4.085026741027832</v>
       </c>
       <c r="H17" t="n">
-        <v>3.924769163131714</v>
+        <v>3.795966386795044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.385046660900116</v>
+        <v>0.3889023399353028</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.742626266479492</v>
+        <v>-2.324045066833496</v>
       </c>
       <c r="C18" t="n">
-        <v>-9.701286315917969</v>
+        <v>-9.86629581451416</v>
       </c>
       <c r="D18" t="n">
-        <v>-12.94745445251465</v>
+        <v>-12.94395446777344</v>
       </c>
       <c r="E18" t="n">
-        <v>6.514664649963379</v>
+        <v>6.317916870117188</v>
       </c>
       <c r="F18" t="n">
-        <v>7.577818870544434</v>
+        <v>7.56395149230957</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.153447151184082</v>
+        <v>-7.148618698120117</v>
       </c>
       <c r="H18" t="n">
-        <v>3.205530881881714</v>
+        <v>3.50335168838501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4126368224620819</v>
+        <v>0.4129051834344864</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.717850246429443</v>
+        <v>-2.370180282592774</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.07045555114746</v>
+        <v>-11.04791736602783</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.5744800567627</v>
+        <v>-13.08932018280029</v>
       </c>
       <c r="E19" t="n">
-        <v>7.979497909545898</v>
+        <v>7.724306583404541</v>
       </c>
       <c r="F19" t="n">
-        <v>7.389443397521973</v>
+        <v>7.967381477355957</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.09954071044922</v>
+        <v>-10.4886474609375</v>
       </c>
       <c r="H19" t="n">
-        <v>2.970250844955444</v>
+        <v>2.865920782089233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4420254921913147</v>
+        <v>0.4378908061981202</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.713031311035156</v>
+        <v>-2.350939922332764</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.5288724899292</v>
+        <v>-12.27791976928711</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.83400917053223</v>
+        <v>-13.28109359741211</v>
       </c>
       <c r="E20" t="n">
-        <v>9.215782165527344</v>
+        <v>9.065859794616699</v>
       </c>
       <c r="F20" t="n">
-        <v>7.352805137634277</v>
+        <v>7.799135208129883</v>
       </c>
       <c r="G20" t="n">
-        <v>-14.03360843658447</v>
+        <v>-13.70162200927734</v>
       </c>
       <c r="H20" t="n">
-        <v>2.733718395233154</v>
+        <v>2.726428508758545</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4587269586324692</v>
+        <v>0.46694799721241</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.706369009017945</v>
+        <v>-2.350062212944031</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.35768508911133</v>
+        <v>-13.70835781097412</v>
       </c>
       <c r="D21" t="n">
-        <v>-13.72663879394531</v>
+        <v>-13.78286170959473</v>
       </c>
       <c r="E21" t="n">
-        <v>10.3989429473877</v>
+        <v>10.55619430541992</v>
       </c>
       <c r="F21" t="n">
-        <v>7.302151679992676</v>
+        <v>7.791458129882812</v>
       </c>
       <c r="G21" t="n">
-        <v>-14.86472034454346</v>
+        <v>-15.44726085662842</v>
       </c>
       <c r="H21" t="n">
-        <v>2.852314710617065</v>
+        <v>2.711393356323242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4900139307975769</v>
+        <v>0.4829494822025299</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.770390996932984</v>
+        <v>-2.308742899894714</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.91030788421631</v>
+        <v>-14.49608516693115</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.31176376342773</v>
+        <v>-13.38394737243652</v>
       </c>
       <c r="E22" t="n">
-        <v>11.53446292877197</v>
+        <v>11.81991195678711</v>
       </c>
       <c r="F22" t="n">
-        <v>7.78891658782959</v>
+        <v>7.430140495300293</v>
       </c>
       <c r="G22" t="n">
-        <v>-15.33841705322266</v>
+        <v>-15.46547508239746</v>
       </c>
       <c r="H22" t="n">
-        <v>2.58500599861145</v>
+        <v>2.148662805557251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5059345442056656</v>
+        <v>0.5162016022205353</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.767344160079956</v>
+        <v>-2.404545397758484</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.70037078857422</v>
+        <v>-16.13303565979004</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.27177810668945</v>
+        <v>-12.12256813049316</v>
       </c>
       <c r="E23" t="n">
-        <v>12.29898834228516</v>
+        <v>12.39745807647705</v>
       </c>
       <c r="F23" t="n">
-        <v>7.765750885009766</v>
+        <v>8.267889976501465</v>
       </c>
       <c r="G23" t="n">
-        <v>-14.99719905853271</v>
+        <v>-14.97513866424561</v>
       </c>
       <c r="H23" t="n">
-        <v>1.507645845413208</v>
+        <v>1.120199680328369</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5236700612306595</v>
+        <v>0.5264182418584824</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.820099978446961</v>
+        <v>-2.380776734352112</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.58049774169922</v>
+        <v>-16.63598442077637</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.06296539306641</v>
+        <v>-9.92989444732666</v>
       </c>
       <c r="E24" t="n">
-        <v>12.20118427276611</v>
+        <v>12.06528377532959</v>
       </c>
       <c r="F24" t="n">
-        <v>8.166858673095703</v>
+        <v>8.060042381286621</v>
       </c>
       <c r="G24" t="n">
-        <v>-13.20925998687744</v>
+        <v>-13.66351795196533</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3339290022850037</v>
+        <v>0.02255412749946117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5263049268722535</v>
+        <v>0.5273660188913346</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.85300359249115</v>
+        <v>-2.431597194671631</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.71125411987305</v>
+        <v>-16.68264198303223</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.204770088195801</v>
+        <v>-8.988906860351562</v>
       </c>
       <c r="E25" t="n">
-        <v>10.77385520935059</v>
+        <v>10.55882358551025</v>
       </c>
       <c r="F25" t="n">
-        <v>8.41702938079834</v>
+        <v>8.504446029663086</v>
       </c>
       <c r="G25" t="n">
-        <v>-10.97760009765625</v>
+        <v>-11.64351558685303</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.766762733459473</v>
+        <v>-2.009322643280029</v>
       </c>
     </row>
     <row r="26">
@@ -1104,649 +1104,649 @@
         <v>0.53</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.934063959121704</v>
+        <v>-2.512031564712525</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.89462280273438</v>
+        <v>-16.81230926513672</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.222312927246094</v>
+        <v>-6.569427490234375</v>
       </c>
       <c r="E26" t="n">
-        <v>7.782820701599121</v>
+        <v>7.97395133972168</v>
       </c>
       <c r="F26" t="n">
-        <v>9.033340454101562</v>
+        <v>9.207808494567871</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.346857070922852</v>
+        <v>-8.408013343811035</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.650710344314575</v>
+        <v>-4.139798641204834</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5120363682508469</v>
+        <v>0.5144511115550995</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.018871712684632</v>
+        <v>-2.52328004360199</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.003173828125</v>
+        <v>-16.04686164855957</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.524032592773438</v>
+        <v>-3.45849871635437</v>
       </c>
       <c r="E27" t="n">
-        <v>3.10616660118103</v>
+        <v>3.439118385314941</v>
       </c>
       <c r="F27" t="n">
-        <v>9.678142547607422</v>
+        <v>9.306170463562012</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.27826452255249</v>
+        <v>-6.025553703308105</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.886271476745605</v>
+        <v>-5.598705768585205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4982661807537079</v>
+        <v>0.5087767064571381</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.999639692306519</v>
+        <v>-2.561463055610657</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.31982707977295</v>
+        <v>-15.7675199508667</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4873659610748291</v>
+        <v>0.07631170749664307</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.248034000396729</v>
+        <v>-2.004976511001587</v>
       </c>
       <c r="F28" t="n">
-        <v>9.531920433044434</v>
+        <v>9.640066146850586</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.742529153823853</v>
+        <v>-3.475919246673584</v>
       </c>
       <c r="H28" t="n">
-        <v>-7.483589649200439</v>
+        <v>-6.589512825012207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4722579115629196</v>
+        <v>0.4683524143695831</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.997921929359436</v>
+        <v>-2.612763690948487</v>
       </c>
       <c r="C29" t="n">
-        <v>-14.02916240692139</v>
+        <v>-13.77749538421631</v>
       </c>
       <c r="D29" t="n">
-        <v>3.364970445632935</v>
+        <v>3.49101185798645</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.059625625610352</v>
+        <v>-7.323712348937988</v>
       </c>
       <c r="F29" t="n">
-        <v>9.518861770629883</v>
+        <v>10.08866596221924</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02004591375589371</v>
+        <v>0.3340227901935577</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.136968612670898</v>
+        <v>-7.881415843963623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4379041373729706</v>
+        <v>0.4396185201406479</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.007226963043213</v>
+        <v>-2.560937390327454</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.32435035705566</v>
+        <v>-12.36297130584717</v>
       </c>
       <c r="D30" t="n">
-        <v>8.042935371398926</v>
+        <v>7.801777362823486</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.43270778656006</v>
+        <v>-11.49527931213379</v>
       </c>
       <c r="F30" t="n">
-        <v>9.589608192443848</v>
+        <v>9.635469436645508</v>
       </c>
       <c r="G30" t="n">
-        <v>1.127125144004822</v>
+        <v>1.610128283500671</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.893587589263916</v>
+        <v>-7.029065608978271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3976358389854431</v>
+        <v>0.3960569792985916</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.909742588996887</v>
+        <v>-2.541574711799622</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.32602691650391</v>
+        <v>-10.21850681304932</v>
       </c>
       <c r="D31" t="n">
-        <v>12.53415679931641</v>
+        <v>12.12321853637695</v>
       </c>
       <c r="E31" t="n">
-        <v>-14.39717960357666</v>
+        <v>-14.57159423828125</v>
       </c>
       <c r="F31" t="n">
-        <v>8.848423957824707</v>
+        <v>9.46614933013916</v>
       </c>
       <c r="G31" t="n">
-        <v>2.261316299438477</v>
+        <v>2.315162897109985</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.880653381347656</v>
+        <v>-6.190216541290283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3284284663200379</v>
+        <v>0.3312326884269715</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.742407155036926</v>
+        <v>-2.382971386909485</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.891599178314209</v>
+        <v>-7.027308940887451</v>
       </c>
       <c r="D32" t="n">
-        <v>16.18835639953613</v>
+        <v>16.06394004821777</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.08706665039062</v>
+        <v>-15.17157363891602</v>
       </c>
       <c r="F32" t="n">
-        <v>7.576154708862305</v>
+        <v>8.07923412322998</v>
       </c>
       <c r="G32" t="n">
-        <v>2.085338592529297</v>
+        <v>2.626169204711914</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.290951251983643</v>
+        <v>-4.623866081237793</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2861760973930359</v>
+        <v>0.2861578696966172</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.620831389427185</v>
+        <v>-2.240004329681397</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.794816970825195</v>
+        <v>-4.808347702026367</v>
       </c>
       <c r="D33" t="n">
-        <v>19.48521423339844</v>
+        <v>19.3670539855957</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.24460029602051</v>
+        <v>-14.15537929534912</v>
       </c>
       <c r="F33" t="n">
-        <v>6.651800155639648</v>
+        <v>6.829052925109863</v>
       </c>
       <c r="G33" t="n">
-        <v>2.414005756378174</v>
+        <v>2.237166166305542</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.935326099395752</v>
+        <v>-3.05408763885498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2413058426976204</v>
+        <v>0.2359228596091271</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.355687084197998</v>
+        <v>-2.100929470062256</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.568121910095215</v>
+        <v>-2.335358142852783</v>
       </c>
       <c r="D34" t="n">
-        <v>22.43878746032715</v>
+        <v>22.90716552734375</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.42238426208496</v>
+        <v>-11.6973123550415</v>
       </c>
       <c r="F34" t="n">
-        <v>4.635878562927246</v>
+        <v>5.612903594970703</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8892778754234314</v>
+        <v>1.302788615226746</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.677911996841431</v>
+        <v>-2.057137489318848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.741077365048316</v>
+        <v>0.7385449796618572</v>
       </c>
       <c r="B35" t="n">
-        <v>14.45356378289157</v>
+        <v>11.64840390838683</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4307579696178436</v>
+        <v>0.3508064448833466</v>
       </c>
       <c r="D35" t="n">
-        <v>24.83857154846191</v>
+        <v>24.75920677185059</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.802977085113525</v>
+        <v>-7.689637184143066</v>
       </c>
       <c r="F35" t="n">
-        <v>2.880927324295044</v>
+        <v>3.156196355819702</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6167959570884705</v>
+        <v>-0.7472068667411804</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.431033253669739</v>
+        <v>-0.9163237810134888</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9335128072128334</v>
+        <v>0.9301912211502465</v>
       </c>
       <c r="B36" t="n">
-        <v>-47.80674086253693</v>
+        <v>-31.82016898250465</v>
       </c>
       <c r="C36" t="n">
-        <v>2.652960062026978</v>
+        <v>2.312409639358521</v>
       </c>
       <c r="D36" t="n">
-        <v>25.97308921813965</v>
+        <v>25.52091407775879</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.762685775756836</v>
+        <v>-3.511310338973999</v>
       </c>
       <c r="F36" t="n">
-        <v>1.344058513641357</v>
+        <v>1.525871753692627</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.396624088287354</v>
+        <v>-2.420888185501099</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.6963400840759277</v>
+        <v>-0.4888375997543335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9871892158315619</v>
+        <v>0.9865368985955034</v>
       </c>
       <c r="B37" t="n">
-        <v>160.6166728175614</v>
+        <v>87.72266447744336</v>
       </c>
       <c r="C37" t="n">
-        <v>4.338969230651855</v>
+        <v>4.246911525726318</v>
       </c>
       <c r="D37" t="n">
-        <v>24.67020225524902</v>
+        <v>24.38528251647949</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5195028185844421</v>
+        <v>-0.1845025569200516</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09618322551250458</v>
+        <v>-0.5124717354774475</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.688161849975586</v>
+        <v>-4.866137504577637</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.2986794114112854</v>
+        <v>-0.1440987288951874</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9984360101955684</v>
+        <v>0.9983662773091144</v>
       </c>
       <c r="B38" t="n">
-        <v>-455.5174731005682</v>
+        <v>-202.9810659704522</v>
       </c>
       <c r="C38" t="n">
-        <v>6.195755958557129</v>
+        <v>6.112648963928223</v>
       </c>
       <c r="D38" t="n">
-        <v>23.42275047302246</v>
+        <v>22.93478965759277</v>
       </c>
       <c r="E38" t="n">
-        <v>1.947914838790894</v>
+        <v>2.552886724472046</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.749528884887695</v>
+        <v>-1.857672929763794</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.740878582000732</v>
+        <v>-6.851152420043945</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5031011700630188</v>
+        <v>0.6340324878692627</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9998582332608886</v>
+        <v>0.9998513841943715</v>
       </c>
       <c r="B39" t="n">
-        <v>1129.459171991522</v>
+        <v>413.6347626143842</v>
       </c>
       <c r="C39" t="n">
-        <v>7.022658824920654</v>
+        <v>6.90531063079834</v>
       </c>
       <c r="D39" t="n">
-        <v>19.75325012207031</v>
+        <v>19.33963584899902</v>
       </c>
       <c r="E39" t="n">
-        <v>3.821647644042969</v>
+        <v>3.477117538452148</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.313839435577393</v>
+        <v>-3.383390665054321</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.42848014831543</v>
+        <v>-8.024306297302246</v>
       </c>
       <c r="H39" t="n">
-        <v>1.106584072113037</v>
+        <v>1.348586201667786</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999897337748782</v>
+        <v>0.999990848396042</v>
       </c>
       <c r="B40" t="n">
-        <v>-2407.97028374344</v>
+        <v>-701.7681727809045</v>
       </c>
       <c r="C40" t="n">
-        <v>7.502079010009766</v>
+        <v>7.672091484069824</v>
       </c>
       <c r="D40" t="n">
-        <v>15.21130084991455</v>
+        <v>15.37272167205811</v>
       </c>
       <c r="E40" t="n">
-        <v>3.876407384872437</v>
+        <v>4.157586097717285</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.672407627105713</v>
+        <v>-4.865461349487305</v>
       </c>
       <c r="G40" t="n">
-        <v>-9.45445442199707</v>
+        <v>-9.337810516357422</v>
       </c>
       <c r="H40" t="n">
-        <v>1.749651312828064</v>
+        <v>2.429633617401123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999995439819412</v>
+        <v>0.9999995094882297</v>
       </c>
       <c r="B41" t="n">
-        <v>4167.744434091541</v>
+        <v>1026.006516913078</v>
       </c>
       <c r="C41" t="n">
-        <v>8.238439559936523</v>
+        <v>7.880311012268066</v>
       </c>
       <c r="D41" t="n">
-        <v>10.12548637390137</v>
+        <v>9.636302947998047</v>
       </c>
       <c r="E41" t="n">
-        <v>3.638095378875732</v>
+        <v>3.742127895355225</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.304675102233887</v>
+        <v>-5.999072551727295</v>
       </c>
       <c r="G41" t="n">
-        <v>-10.73566722869873</v>
+        <v>-10.60578155517578</v>
       </c>
       <c r="H41" t="n">
-        <v>3.042105674743652</v>
+        <v>3.621111154556274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999629826415</v>
+        <v>0.9999999566442882</v>
       </c>
       <c r="B42" t="n">
-        <v>-5926.44784147835</v>
+        <v>-1119.394428328088</v>
       </c>
       <c r="C42" t="n">
-        <v>7.271708488464355</v>
+        <v>6.972595691680908</v>
       </c>
       <c r="D42" t="n">
-        <v>4.839481830596924</v>
+        <v>4.019772529602051</v>
       </c>
       <c r="E42" t="n">
-        <v>2.923620223999023</v>
+        <v>2.578044414520264</v>
       </c>
       <c r="F42" t="n">
-        <v>-7.542251586914062</v>
+        <v>-7.692867755889893</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.37154006958008</v>
+        <v>-11.32482433319092</v>
       </c>
       <c r="H42" t="n">
-        <v>4.169443607330322</v>
+        <v>4.556461334228516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999967456613</v>
+        <v>0.9999999964051132</v>
       </c>
       <c r="B43" t="n">
-        <v>6661.520072491424</v>
+        <v>882.8537594245636</v>
       </c>
       <c r="C43" t="n">
-        <v>7.094472885131836</v>
+        <v>7.115382194519043</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.8154937624931335</v>
+        <v>-1.081371545791626</v>
       </c>
       <c r="E43" t="n">
-        <v>1.5777747631073</v>
+        <v>1.730857372283936</v>
       </c>
       <c r="F43" t="n">
-        <v>-8.746660232543945</v>
+        <v>-9.110913276672363</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.79760837554932</v>
+        <v>-11.22515869140625</v>
       </c>
       <c r="H43" t="n">
-        <v>6.047262668609619</v>
+        <v>5.709321975708008</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999997267109</v>
+        <v>0.999999999615576</v>
       </c>
       <c r="B44" t="n">
-        <v>-4776.382346575289</v>
+        <v>-450.8754190695607</v>
       </c>
       <c r="C44" t="n">
-        <v>7.19802188873291</v>
+        <v>6.488668918609619</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.280325889587402</v>
+        <v>-5.970695495605469</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6626136898994446</v>
+        <v>1.033412098884583</v>
       </c>
       <c r="F44" t="n">
-        <v>-10.38433170318604</v>
+        <v>-10.38393402099609</v>
       </c>
       <c r="G44" t="n">
-        <v>-12.08828639984131</v>
+        <v>-11.84546375274658</v>
       </c>
       <c r="H44" t="n">
-        <v>7.354083061218262</v>
+        <v>7.59209156036377</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999706044</v>
+        <v>0.9999999999586139</v>
       </c>
       <c r="B45" t="n">
-        <v>2020.157990145519</v>
+        <v>108.7360513063588</v>
       </c>
       <c r="C45" t="n">
-        <v>6.577692031860352</v>
+        <v>6.469857692718506</v>
       </c>
       <c r="D45" t="n">
-        <v>-9.318390846252441</v>
+        <v>-9.452230453491211</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1177147328853607</v>
+        <v>-0.2027932852506638</v>
       </c>
       <c r="F45" t="n">
-        <v>-11.57154369354248</v>
+        <v>-11.6537971496582</v>
       </c>
       <c r="G45" t="n">
-        <v>-12.37570762634277</v>
+        <v>-11.47801685333252</v>
       </c>
       <c r="H45" t="n">
-        <v>8.752682685852051</v>
+        <v>8.873013496398926</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999961361</v>
+        <v>0.9999999999951243</v>
       </c>
       <c r="B46" t="n">
-        <v>-227.7968698811574</v>
+        <v>-3.244115968733995</v>
       </c>
       <c r="C46" t="n">
-        <v>5.949539661407471</v>
+        <v>6.205004215240479</v>
       </c>
       <c r="D46" t="n">
-        <v>-11.91298675537109</v>
+        <v>-11.96561717987061</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6731786727905273</v>
+        <v>-0.5765795111656189</v>
       </c>
       <c r="F46" t="n">
-        <v>-12.81806087493896</v>
+        <v>-12.57620620727539</v>
       </c>
       <c r="G46" t="n">
-        <v>-12.26210117340088</v>
+        <v>-11.80567646026611</v>
       </c>
       <c r="H46" t="n">
-        <v>10.01194858551025</v>
+        <v>10.00718593597412</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999995567</v>
+        <v>0.9999999999994004</v>
       </c>
       <c r="B47" t="n">
-        <v>-70.8402460446915</v>
+        <v>-0.4070241729718518</v>
       </c>
       <c r="C47" t="n">
-        <v>6.388931751251221</v>
+        <v>6.070172786712646</v>
       </c>
       <c r="D47" t="n">
-        <v>-12.26216506958008</v>
+        <v>-13.99572467803955</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.933247447013855</v>
+        <v>-0.8445543050765991</v>
       </c>
       <c r="F47" t="n">
-        <v>-14.53994750976562</v>
+        <v>-14.29526329040527</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.25438404083252</v>
+        <v>-11.92997264862061</v>
       </c>
       <c r="H47" t="n">
-        <v>11.04688835144043</v>
+        <v>11.54328155517578</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999476</v>
+        <v>0.9999999999999182</v>
       </c>
       <c r="B48" t="n">
-        <v>-31.57652988751073</v>
+        <v>0.2969570911377264</v>
       </c>
       <c r="C48" t="n">
-        <v>6.29867696762085</v>
+        <v>5.717015266418457</v>
       </c>
       <c r="D48" t="n">
-        <v>-12.23366928100586</v>
+        <v>-13.62522029876709</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.32688570022583</v>
+        <v>-1.123679995536804</v>
       </c>
       <c r="F48" t="n">
-        <v>-15.10194873809814</v>
+        <v>-15.07454109191895</v>
       </c>
       <c r="G48" t="n">
-        <v>-11.18873977661133</v>
+        <v>-11.32974529266357</v>
       </c>
       <c r="H48" t="n">
-        <v>11.64600372314453</v>
+        <v>11.78509712219238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999999999999943</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="B49" t="n">
-        <v>-24.56995076888916</v>
+        <v>0.4602794129595834</v>
       </c>
       <c r="C49" t="n">
-        <v>6.585024833679199</v>
+        <v>6.674418449401855</v>
       </c>
       <c r="D49" t="n">
-        <v>-11.53374195098877</v>
+        <v>-13.07698631286621</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.381263613700867</v>
+        <v>-1.059497594833374</v>
       </c>
       <c r="F49" t="n">
-        <v>-16.4376220703125</v>
+        <v>-16.31673622131348</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.07026767730713</v>
+        <v>-9.923885345458984</v>
       </c>
       <c r="H49" t="n">
-        <v>11.23471450805664</v>
+        <v>11.43953132629395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="B50" t="n">
-        <v>-19.05772736716762</v>
+        <v>0.5024982344653844</v>
       </c>
       <c r="C50" t="n">
-        <v>7.480998992919922</v>
+        <v>6.954773902893066</v>
       </c>
       <c r="D50" t="n">
-        <v>-10.65623474121094</v>
+        <v>-11.53540134429932</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.060428857803345</v>
+        <v>-1.690891265869141</v>
       </c>
       <c r="F50" t="n">
-        <v>-16.43563270568848</v>
+        <v>-17.03085708618164</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.228113174438477</v>
+        <v>-8.366668701171875</v>
       </c>
       <c r="H50" t="n">
-        <v>10.18142032623291</v>
+        <v>9.953536987304688</v>
       </c>
     </row>
     <row r="51">
@@ -1754,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>-19.05772736716762</v>
+        <v>0.5324189177237099</v>
       </c>
       <c r="C51" t="n">
-        <v>7.818656921386719</v>
+        <v>7.914868354797363</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.176410675048828</v>
+        <v>-9.596650123596191</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.71824312210083</v>
+        <v>-2.533790349960327</v>
       </c>
       <c r="F51" t="n">
-        <v>-17.3043212890625</v>
+        <v>-17.11465835571289</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.633326530456543</v>
+        <v>-6.5419602394104</v>
       </c>
       <c r="H51" t="n">
-        <v>7.545356273651123</v>
+        <v>7.194278717041016</v>
       </c>
     </row>
     <row r="52">
@@ -1780,25 +1780,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>-17.7573005400688</v>
+        <v>0.5324189177237099</v>
       </c>
       <c r="C52" t="n">
-        <v>8.334737777709961</v>
+        <v>8.446271896362305</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.839308261871338</v>
+        <v>-8.717983245849609</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.183116912841797</v>
+        <v>-3.138528347015381</v>
       </c>
       <c r="F52" t="n">
-        <v>-17.04306221008301</v>
+        <v>-17.39339256286621</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.434921741485596</v>
+        <v>-4.121536254882812</v>
       </c>
       <c r="H52" t="n">
-        <v>3.634125947952271</v>
+        <v>3.701670169830322</v>
       </c>
     </row>
   </sheetData>
